--- a/biology/Médecine/Jean_Patel/Jean_Patel.xlsx
+++ b/biology/Médecine/Jean_Patel/Jean_Patel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Patel est un médecin et chirurgien français né le 21 juin 1900 à Nantes et mort le 10 juillet 1968 à Suresnes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Patel est un médecin et chirurgien français né le 21 juin 1900 à Nantes et mort le 10 juillet 1968 à Suresnes.
 </t>
         </is>
       </c>
@@ -511,41 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Edmond Ernest Patel est le fils de Marie Joseph Antoine Gabriel Alphonse Patel, inspecteur de la Compagnie des chemins de fer de Paris à Lyon et à la Méditerranée (PLM), et petite-fils du général Jean Constant Edmond Renouard. Gendre du Dr Ernest de Massary, il est le père des chirurgiens Jean-Claude et Alain Patel.
-Membre de l'Académie nationale de médecine[2], il est secrétaire général (1959-1964) puis président (1965) de l'Académie nationale de chirurgie.
+Membre de l'Académie nationale de médecine, il est secrétaire général (1959-1964) puis président (1965) de l'Académie nationale de chirurgie.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean_Patel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_Patel</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Travaux</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publications</t>
         </is>
       </c>
     </row>
